--- a/src/test/java/ApachePOI/resource/SenaryoSonuclari3.xlsx
+++ b/src/test/java/ApachePOI/resource/SenaryoSonuclari3.xlsx
@@ -12,12 +12,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
   <si>
     <t>Create and Delete CitizenShip from excel</t>
   </si>
   <si>
     <t>FAILED</t>
+  </si>
+  <si>
+    <t>States testing with JDBC</t>
+  </si>
+  <si>
+    <t>UNDEFINED</t>
+  </si>
+  <si>
+    <t>PASSED</t>
   </si>
 </sst>
 </file>
@@ -62,7 +71,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -92,6 +101,30 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/SenaryoSonuclari3.xlsx
+++ b/src/test/java/ApachePOI/resource/SenaryoSonuclari3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
   <si>
     <t>Create and Delete CitizenShip from excel</t>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t>PASSED</t>
+  </si>
+  <si>
+    <t>Login with valid username and password</t>
   </si>
 </sst>
 </file>
@@ -71,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -125,6 +128,22 @@
         <v>4</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/SenaryoSonuclari3.xlsx
+++ b/src/test/java/ApachePOI/resource/SenaryoSonuclari3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
   <si>
     <t>Create and Delete CitizenShip from excel</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>Login with valid username and password</t>
+  </si>
+  <si>
+    <t>Create a country</t>
   </si>
 </sst>
 </file>
@@ -74,7 +77,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -144,6 +147,54 @@
         <v>4</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/SenaryoSonuclari3.xlsx
+++ b/src/test/java/ApachePOI/resource/SenaryoSonuclari3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="7">
   <si>
     <t>Create and Delete CitizenShip from excel</t>
   </si>
@@ -77,7 +77,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -195,6 +195,22 @@
         <v>4</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/SenaryoSonuclari3.xlsx
+++ b/src/test/java/ApachePOI/resource/SenaryoSonuclari3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="7">
   <si>
     <t>Create and Delete CitizenShip from excel</t>
   </si>
@@ -77,7 +77,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -211,6 +211,22 @@
         <v>4</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/SenaryoSonuclari3.xlsx
+++ b/src/test/java/ApachePOI/resource/SenaryoSonuclari3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="9">
   <si>
     <t>Create and Delete CitizenShip from excel</t>
   </si>
@@ -33,6 +33,12 @@
   </si>
   <si>
     <t>Create a country</t>
+  </si>
+  <si>
+    <t>Create country</t>
+  </si>
+  <si>
+    <t>Create country 2</t>
   </si>
 </sst>
 </file>
@@ -77,7 +83,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -227,6 +233,38 @@
         <v>4</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
